--- a/anal.xlsx
+++ b/anal.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangtangwai/Desktop/實驗技術下/Matlab/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\faceb\Desktop\Lab project\Matlab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CB3FD60-60FD-DB46-B5E7-5554B6F2E3DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E9528AC-2130-4CCA-BA07-5D3FBD92278D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1540" yWindow="3040" windowWidth="28260" windowHeight="16240" activeTab="1" xr2:uid="{2514B1B0-5647-3845-9A05-E8FDBD3E2166}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2514B1B0-5647-3845-9A05-E8FDBD3E2166}"/>
   </bookViews>
   <sheets>
     <sheet name="Sweeper" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,17 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -90,7 +101,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -144,7 +155,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -160,7 +171,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -458,13 +469,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5767F35-C195-AA45-8BF0-F9C11C0AD0F4}">
   <dimension ref="A1:Y32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R35" sqref="R35"/>
+    <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -527,7 +538,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1.41807777777777</v>
       </c>
@@ -597,7 +608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1.41807777777777</v>
       </c>
@@ -667,7 +678,7 @@
         <v>1.3129251700680022E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1.41807777777777</v>
       </c>
@@ -737,7 +748,7 @@
         <v>5.251700680272009E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1.41807777777777</v>
       </c>
@@ -807,7 +818,7 @@
         <v>7.8775510204090127E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1.41807777777777</v>
       </c>
@@ -877,7 +888,7 @@
         <v>9.1904761904770149E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1.41807777777777</v>
       </c>
@@ -947,7 +958,7 @@
         <v>0.10503401360545017</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1.41807777777777</v>
       </c>
@@ -1017,7 +1028,7 @@
         <v>0.11816326530613019</v>
       </c>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1.41807777777777</v>
       </c>
@@ -1087,7 +1098,7 @@
         <v>0.13129251700680999</v>
       </c>
     </row>
-    <row r="10" spans="1:25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1.41807777777777</v>
       </c>
@@ -1157,7 +1168,7 @@
         <v>0.13129251700680999</v>
       </c>
     </row>
-    <row r="11" spans="1:25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1.41807777777777</v>
       </c>
@@ -1227,7 +1238,7 @@
         <v>0.14442176870749002</v>
       </c>
     </row>
-    <row r="12" spans="1:25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1.41807777777777</v>
       </c>
@@ -1297,7 +1308,7 @@
         <v>0.14442176870749002</v>
       </c>
     </row>
-    <row r="13" spans="1:25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1.41807777777777</v>
       </c>
@@ -1367,7 +1378,7 @@
         <v>0.15755102040817004</v>
       </c>
     </row>
-    <row r="14" spans="1:25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1.41807777777777</v>
       </c>
@@ -1437,7 +1448,7 @@
         <v>0.13129251700680999</v>
       </c>
     </row>
-    <row r="15" spans="1:25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1.41807777777777</v>
       </c>
@@ -1507,7 +1518,7 @@
         <v>0.13129251700680999</v>
       </c>
     </row>
-    <row r="16" spans="1:25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1.41807777777777</v>
       </c>
@@ -1577,7 +1588,7 @@
         <v>0.13129251700680999</v>
       </c>
     </row>
-    <row r="17" spans="1:25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1.41807777777777</v>
       </c>
@@ -1647,7 +1658,7 @@
         <v>0.11816326530613019</v>
       </c>
     </row>
-    <row r="18" spans="1:25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1.41807777777777</v>
       </c>
@@ -1717,7 +1728,7 @@
         <v>0.10503401360545017</v>
       </c>
     </row>
-    <row r="19" spans="1:25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1.41807777777777</v>
       </c>
@@ -1787,7 +1798,7 @@
         <v>7.8775510204090127E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1.41807777777777</v>
       </c>
@@ -1857,7 +1868,7 @@
         <v>6.5646258503410104E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1.41807777777777</v>
       </c>
@@ -1927,7 +1938,7 @@
         <v>7.8775510204090127E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1.41807777777777</v>
       </c>
@@ -1997,7 +2008,7 @@
         <v>5.251700680272009E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:25">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1.41807777777777</v>
       </c>
@@ -2067,7 +2078,7 @@
         <v>1.3129251700680022E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:25">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1.41807777777777</v>
       </c>
@@ -2137,7 +2148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:25">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1.41807777777777</v>
       </c>
@@ -2207,7 +2218,7 @@
         <v>-3.9387755102039845E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:25">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1.41807777777777</v>
       </c>
@@ -2277,7 +2288,7 @@
         <v>-7.8775510204079913E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:25">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1.41807777777777</v>
       </c>
@@ -2347,7 +2358,7 @@
         <v>-0.10503401360543996</v>
       </c>
     </row>
-    <row r="28" spans="1:25">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="M28">
         <v>4.1708333333333298</v>
       </c>
@@ -2386,7 +2397,7 @@
         <v>-0.1312925170068</v>
       </c>
     </row>
-    <row r="29" spans="1:25">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="M29">
         <v>4.1708333333333298</v>
       </c>
@@ -2425,7 +2436,7 @@
         <v>-0.17068027210883985</v>
       </c>
     </row>
-    <row r="30" spans="1:25">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="M30">
         <v>4.1708333333333298</v>
       </c>
@@ -2464,7 +2475,7 @@
         <v>-0.21006802721087992</v>
       </c>
     </row>
-    <row r="31" spans="1:25">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="M31">
         <v>4.1708333333333298</v>
       </c>
@@ -2503,7 +2514,7 @@
         <v>-0.23632653061223996</v>
       </c>
     </row>
-    <row r="32" spans="1:25">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="M32">
         <v>4.1708333333333298</v>
       </c>
@@ -2551,592 +2562,592 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12BD36C0-B425-9B4C-A2F6-5AE91219C9DE}">
-  <dimension ref="A1:P14"/>
+  <dimension ref="B2:Q15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:16">
-      <c r="A1" t="s">
+    <row r="2" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G2" t="s">
         <v>10</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J2" t="s">
         <v>12</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K2" t="s">
         <v>14</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L2" t="s">
         <v>13</v>
       </c>
-      <c r="O1">
+      <c r="P2">
         <v>1.071</v>
       </c>
-      <c r="P1">
+      <c r="Q2">
         <v>1.9590000000000001</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
-      <c r="A2">
+    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B3">
         <v>2.3333333333333299</v>
       </c>
-      <c r="B2">
+      <c r="C3">
         <v>1.0706233608585101</v>
       </c>
-      <c r="C2">
+      <c r="D3">
         <v>1.6812752037185601</v>
       </c>
-      <c r="E2">
+      <c r="F3">
         <v>2.3333333333333299</v>
       </c>
-      <c r="F2">
+      <c r="G3">
         <v>1.0706233608585101</v>
       </c>
-      <c r="G2">
+      <c r="H3">
         <v>1.6812752037185601</v>
       </c>
-      <c r="I2">
-        <f>E2-A2</f>
+      <c r="J3">
+        <f>F3-B3</f>
         <v>0</v>
       </c>
-      <c r="J2">
-        <f>F2-B2-O2</f>
+      <c r="K3">
+        <f>G3-C3-P3</f>
         <v>0</v>
       </c>
-      <c r="K2">
-        <f>G2-C2</f>
+      <c r="L3">
+        <f>H3-D3</f>
         <v>0</v>
       </c>
-      <c r="M2">
-        <f>P1-O1</f>
+      <c r="N3">
+        <f>Q2-P2</f>
         <v>0.88800000000000012</v>
       </c>
-      <c r="N2">
+      <c r="O3">
         <v>0</v>
       </c>
-      <c r="O2">
-        <f>M2*N2/12</f>
+      <c r="P3">
+        <f>N3*O3/12</f>
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
-      <c r="A3">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B4">
         <v>2.3333333333333299</v>
       </c>
-      <c r="B3">
+      <c r="C4">
         <v>1.0706233608585101</v>
       </c>
-      <c r="C3">
+      <c r="D4">
         <v>1.6812752037185601</v>
       </c>
-      <c r="E3">
+      <c r="F4">
         <v>2.36666666666666</v>
       </c>
-      <c r="F3">
+      <c r="G4">
         <v>1.1499287949961801</v>
       </c>
-      <c r="G3">
+      <c r="H4">
         <v>1.70506683395986</v>
       </c>
-      <c r="I3">
-        <f t="shared" ref="I3:I14" si="0">E3-A3</f>
+      <c r="J4">
+        <f t="shared" ref="J4:J15" si="0">F4-B4</f>
         <v>3.3333333333330106E-2</v>
       </c>
-      <c r="J3">
-        <f t="shared" ref="J3:J14" si="1">F3-B3-O3</f>
+      <c r="K4">
+        <f t="shared" ref="K4:K15" si="1">G4-C4-P4</f>
         <v>5.3054341376699843E-3</v>
       </c>
-      <c r="K3">
-        <f t="shared" ref="K3:K14" si="2">G3-C3</f>
+      <c r="L4">
+        <f t="shared" ref="L4:L15" si="2">H4-D4</f>
         <v>2.3791630241299933E-2</v>
       </c>
-      <c r="M3">
+      <c r="N4">
         <v>0.88800000000000012</v>
       </c>
-      <c r="N3">
+      <c r="O4">
         <v>1</v>
       </c>
-      <c r="O3">
-        <f t="shared" ref="O3:O14" si="3">M3*N3/12</f>
+      <c r="P4">
+        <f t="shared" ref="P4:P15" si="3">N4*O4/12</f>
         <v>7.400000000000001E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
-      <c r="A4">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B5">
         <v>2.3333333333333299</v>
       </c>
-      <c r="B4">
+      <c r="C5">
         <v>1.0706233608585101</v>
       </c>
-      <c r="C4">
+      <c r="D5">
         <v>1.6812752037185601</v>
       </c>
-      <c r="E4">
+      <c r="F5">
         <v>2.4</v>
       </c>
-      <c r="F4">
+      <c r="G5">
         <v>1.2292342291338501</v>
       </c>
-      <c r="G4">
+      <c r="H5">
         <v>1.72092792078739</v>
       </c>
-      <c r="I4">
+      <c r="J5">
         <f t="shared" si="0"/>
         <v>6.6666666666669983E-2</v>
       </c>
-      <c r="J4">
+      <c r="K5">
         <f t="shared" si="1"/>
         <v>1.0610868275339969E-2</v>
       </c>
-      <c r="K4">
+      <c r="L5">
         <f t="shared" si="2"/>
         <v>3.965271706882989E-2</v>
       </c>
-      <c r="M4">
+      <c r="N5">
         <v>0.88800000000000012</v>
       </c>
-      <c r="N4">
+      <c r="O5">
         <v>2</v>
       </c>
-      <c r="O4">
+      <c r="P5">
         <f t="shared" si="3"/>
         <v>0.14800000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
-      <c r="A5">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B6">
         <v>2.3333333333333299</v>
       </c>
-      <c r="B5">
+      <c r="C6">
         <v>1.0706233608585101</v>
       </c>
-      <c r="C5">
+      <c r="D6">
         <v>1.6812752037185601</v>
       </c>
-      <c r="E5">
+      <c r="F6">
         <v>2.43333333333333</v>
       </c>
-      <c r="F5">
+      <c r="G6">
         <v>1.30853966327152</v>
       </c>
-      <c r="G5">
+      <c r="H6">
         <v>1.72885846420116</v>
       </c>
-      <c r="I5">
+      <c r="J6">
         <f t="shared" si="0"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="J5">
+      <c r="K6">
         <f t="shared" si="1"/>
         <v>1.5916302413009925E-2</v>
       </c>
-      <c r="K5">
+      <c r="L6">
         <f t="shared" si="2"/>
         <v>4.7583260482599865E-2</v>
       </c>
-      <c r="M5">
+      <c r="N6">
         <v>0.88800000000000012</v>
       </c>
-      <c r="N5">
+      <c r="O6">
         <v>3</v>
       </c>
-      <c r="O5">
+      <c r="P6">
         <f t="shared" si="3"/>
         <v>0.22200000000000006</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
-      <c r="A6">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B7">
         <v>2.3333333333333299</v>
       </c>
-      <c r="B6">
+      <c r="C7">
         <v>1.0706233608585101</v>
       </c>
-      <c r="C6">
+      <c r="D7">
         <v>1.6812752037185601</v>
       </c>
-      <c r="E6">
+      <c r="F7">
         <v>2.4666666666666601</v>
       </c>
-      <c r="F6">
+      <c r="G7">
         <v>1.38784509740919</v>
       </c>
-      <c r="G6">
+      <c r="H7">
         <v>1.7367890076149299</v>
       </c>
-      <c r="I6">
+      <c r="J7">
         <f t="shared" si="0"/>
         <v>0.1333333333333302</v>
       </c>
-      <c r="J6">
+      <c r="K7">
         <f t="shared" si="1"/>
         <v>2.1221736550679937E-2</v>
       </c>
-      <c r="K6">
+      <c r="L7">
         <f t="shared" si="2"/>
         <v>5.551380389636984E-2</v>
       </c>
-      <c r="M6">
+      <c r="N7">
         <v>0.88800000000000012</v>
       </c>
-      <c r="N6">
+      <c r="O7">
         <v>4</v>
       </c>
-      <c r="O6">
+      <c r="P7">
         <f t="shared" si="3"/>
         <v>0.29600000000000004</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
-      <c r="A7">
+    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B8">
         <v>2.3333333333333299</v>
       </c>
-      <c r="B7">
+      <c r="C8">
         <v>1.0706233608585101</v>
       </c>
-      <c r="C7">
+      <c r="D8">
         <v>1.6812752037185601</v>
       </c>
-      <c r="E7">
+      <c r="F8">
         <v>2.5</v>
       </c>
-      <c r="F7">
+      <c r="G8">
         <v>1.4512894447193201</v>
       </c>
-      <c r="G7">
+      <c r="H8">
         <v>1.7367890076149299</v>
       </c>
-      <c r="I7">
+      <c r="J8">
         <f t="shared" si="0"/>
         <v>0.16666666666667007</v>
       </c>
-      <c r="J7">
+      <c r="K8">
         <f t="shared" si="1"/>
         <v>1.0666083860809972E-2</v>
       </c>
-      <c r="K7">
+      <c r="L8">
         <f t="shared" si="2"/>
         <v>5.551380389636984E-2</v>
       </c>
-      <c r="M7">
+      <c r="N8">
         <v>0.88800000000000012</v>
       </c>
-      <c r="N7">
+      <c r="O8">
         <v>5</v>
       </c>
-      <c r="O7">
+      <c r="P8">
         <f t="shared" si="3"/>
         <v>0.37000000000000005</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
-      <c r="A8">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B9">
         <v>2.3333333333333299</v>
       </c>
-      <c r="B8">
+      <c r="C9">
         <v>1.0706233608585101</v>
       </c>
-      <c r="C8">
+      <c r="D9">
         <v>1.6812752037185601</v>
       </c>
-      <c r="E8">
+      <c r="F9">
         <v>2.5333333333333301</v>
       </c>
-      <c r="F8">
+      <c r="G9">
         <v>1.5226643354432201</v>
       </c>
-      <c r="G8">
+      <c r="H9">
         <v>1.7447195510286899</v>
       </c>
-      <c r="I8">
+      <c r="J9">
         <f t="shared" si="0"/>
         <v>0.20000000000000018</v>
       </c>
-      <c r="J8">
+      <c r="K9">
         <f t="shared" si="1"/>
         <v>8.0409745847099257E-3</v>
       </c>
-      <c r="K8">
+      <c r="L9">
         <f t="shared" si="2"/>
         <v>6.3444347310129823E-2</v>
       </c>
-      <c r="M8">
+      <c r="N9">
         <v>0.88800000000000012</v>
       </c>
-      <c r="N8">
+      <c r="O9">
         <v>6</v>
       </c>
-      <c r="O8">
+      <c r="P9">
         <f t="shared" si="3"/>
         <v>0.44400000000000012</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
-      <c r="A9">
+    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B10">
         <v>2.3333333333333299</v>
       </c>
-      <c r="B9">
+      <c r="C10">
         <v>1.0706233608585101</v>
       </c>
-      <c r="C9">
+      <c r="D10">
         <v>1.6812752037185601</v>
       </c>
-      <c r="E9">
+      <c r="F10">
         <v>2.5666666666666602</v>
       </c>
-      <c r="F9">
+      <c r="G10">
         <v>1.5940392261671199</v>
       </c>
-      <c r="G9">
+      <c r="H10">
         <v>1.7367890076149299</v>
       </c>
-      <c r="I9">
+      <c r="J10">
         <f t="shared" si="0"/>
         <v>0.23333333333333028</v>
       </c>
-      <c r="J9">
+      <c r="K10">
         <f t="shared" si="1"/>
         <v>5.415865308609713E-3</v>
       </c>
-      <c r="K9">
+      <c r="L10">
         <f t="shared" si="2"/>
         <v>5.551380389636984E-2</v>
       </c>
-      <c r="M9">
+      <c r="N10">
         <v>0.88800000000000012</v>
       </c>
-      <c r="N9">
+      <c r="O10">
         <v>7</v>
       </c>
-      <c r="O9">
+      <c r="P10">
         <f t="shared" si="3"/>
         <v>0.51800000000000013</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
-      <c r="A10">
+    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B11">
         <v>2.3333333333333299</v>
       </c>
-      <c r="B10">
+      <c r="C11">
         <v>1.0706233608585101</v>
       </c>
-      <c r="C10">
+      <c r="D11">
         <v>1.6812752037185601</v>
       </c>
-      <c r="E10">
+      <c r="F11">
         <v>2.6</v>
       </c>
-      <c r="F10">
+      <c r="G11">
         <v>1.6654141168910199</v>
       </c>
-      <c r="G10">
+      <c r="H11">
         <v>1.72885846420116</v>
       </c>
-      <c r="I10">
+      <c r="J11">
         <f t="shared" si="0"/>
         <v>0.26666666666667016</v>
       </c>
-      <c r="J10">
+      <c r="K11">
         <f t="shared" si="1"/>
         <v>2.790756032509778E-3</v>
       </c>
-      <c r="K10">
+      <c r="L11">
         <f t="shared" si="2"/>
         <v>4.7583260482599865E-2</v>
       </c>
-      <c r="M10">
+      <c r="N11">
         <v>0.88800000000000012</v>
       </c>
-      <c r="N10">
+      <c r="O11">
         <v>8</v>
       </c>
-      <c r="O10">
+      <c r="P11">
         <f t="shared" si="3"/>
         <v>0.59200000000000008</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
-      <c r="A11">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B12">
         <v>2.3333333333333299</v>
       </c>
-      <c r="B11">
+      <c r="C12">
         <v>1.0706233608585101</v>
       </c>
-      <c r="C11">
+      <c r="D12">
         <v>1.6812752037185601</v>
       </c>
-      <c r="E11">
+      <c r="F12">
         <v>2.6333333333333302</v>
       </c>
-      <c r="F11">
+      <c r="G12">
         <v>1.7367890076149299</v>
       </c>
-      <c r="G11">
+      <c r="H12">
         <v>1.70506683395986</v>
       </c>
-      <c r="I11">
+      <c r="J12">
         <f t="shared" si="0"/>
         <v>0.30000000000000027</v>
       </c>
-      <c r="J11">
+      <c r="K12">
         <f t="shared" si="1"/>
         <v>1.6564675641983495E-4</v>
       </c>
-      <c r="K11">
+      <c r="L12">
         <f t="shared" si="2"/>
         <v>2.3791630241299933E-2</v>
       </c>
-      <c r="M11">
+      <c r="N12">
         <v>0.88800000000000012</v>
       </c>
-      <c r="N11">
+      <c r="O12">
         <v>9</v>
       </c>
-      <c r="O11">
+      <c r="P12">
         <f t="shared" si="3"/>
         <v>0.66600000000000004</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
-      <c r="A12">
+    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B13">
         <v>2.3333333333333299</v>
       </c>
-      <c r="B12">
+      <c r="C13">
         <v>1.0706233608585101</v>
       </c>
-      <c r="C12">
+      <c r="D13">
         <v>1.6812752037185601</v>
       </c>
-      <c r="E12">
+      <c r="F13">
         <v>2.6666666666666599</v>
       </c>
-      <c r="F12">
+      <c r="G13">
         <v>1.80816389833883</v>
       </c>
-      <c r="G12">
+      <c r="H13">
         <v>1.6812752037185601</v>
       </c>
-      <c r="I12">
+      <c r="J13">
         <f t="shared" si="0"/>
         <v>0.33333333333332993</v>
       </c>
-      <c r="J12">
+      <c r="K13">
         <f t="shared" si="1"/>
         <v>-2.4594625196802111E-3</v>
       </c>
-      <c r="K12">
+      <c r="L13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M12">
+      <c r="N13">
         <v>0.88800000000000012</v>
       </c>
-      <c r="N12">
+      <c r="O13">
         <v>10</v>
       </c>
-      <c r="O12">
+      <c r="P13">
         <f t="shared" si="3"/>
         <v>0.7400000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
-      <c r="A13">
+    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B14">
         <v>2.3333333333333299</v>
       </c>
-      <c r="B13">
+      <c r="C14">
         <v>1.0706233608585101</v>
       </c>
-      <c r="C13">
+      <c r="D14">
         <v>1.6812752037185601</v>
       </c>
-      <c r="E13">
+      <c r="F14">
         <v>2.7</v>
       </c>
-      <c r="F13">
+      <c r="G14">
         <v>1.87953878906273</v>
       </c>
-      <c r="G13">
+      <c r="H14">
         <v>1.64955303006349</v>
       </c>
-      <c r="I13">
+      <c r="J14">
         <f t="shared" si="0"/>
         <v>0.36666666666667025</v>
       </c>
-      <c r="J13">
+      <c r="K14">
         <f t="shared" si="1"/>
         <v>-5.0845717957801462E-3</v>
       </c>
-      <c r="K13">
+      <c r="L14">
         <f t="shared" si="2"/>
         <v>-3.1722173655070129E-2</v>
       </c>
-      <c r="M13">
+      <c r="N14">
         <v>0.88800000000000012</v>
       </c>
-      <c r="N13">
+      <c r="O14">
         <v>11</v>
       </c>
-      <c r="O13">
+      <c r="P14">
         <f t="shared" si="3"/>
         <v>0.81400000000000006</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
-      <c r="A14">
+    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B15">
         <v>2.3333333333333299</v>
       </c>
-      <c r="B14">
+      <c r="C15">
         <v>1.0706233608585101</v>
       </c>
-      <c r="C14">
+      <c r="D15">
         <v>1.6812752037185601</v>
       </c>
-      <c r="E14">
+      <c r="F15">
         <v>2.7333333333333298</v>
       </c>
-      <c r="F14">
+      <c r="G15">
         <v>1.9588442232004</v>
       </c>
-      <c r="G14">
+      <c r="H15">
         <v>1.63369194323596</v>
       </c>
-      <c r="I14">
+      <c r="J15">
         <f t="shared" si="0"/>
         <v>0.39999999999999991</v>
       </c>
-      <c r="J14">
+      <c r="K15">
         <f t="shared" si="1"/>
         <v>2.2086234188967158E-4</v>
       </c>
-      <c r="K14">
+      <c r="L15">
         <f t="shared" si="2"/>
         <v>-4.7583260482600087E-2</v>
       </c>
-      <c r="M14">
+      <c r="N15">
         <v>0.88800000000000012</v>
       </c>
-      <c r="N14">
+      <c r="O15">
         <v>12</v>
       </c>
-      <c r="O14">
+      <c r="P15">
         <f t="shared" si="3"/>
         <v>0.88800000000000023</v>
       </c>

--- a/anal.xlsx
+++ b/anal.xlsx
@@ -8,13 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangtangwai/Desktop/實驗技術下/Matlab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CB3FD60-60FD-DB46-B5E7-5554B6F2E3DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0DAB179-1353-C545-9C98-A9752260D419}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1540" yWindow="3040" windowWidth="28260" windowHeight="16240" activeTab="1" xr2:uid="{2514B1B0-5647-3845-9A05-E8FDBD3E2166}"/>
+    <workbookView xWindow="6820" yWindow="920" windowWidth="28260" windowHeight="16240" activeTab="6" xr2:uid="{2514B1B0-5647-3845-9A05-E8FDBD3E2166}"/>
   </bookViews>
   <sheets>
     <sheet name="Sweeper" sheetId="1" r:id="rId1"/>
     <sheet name="Fast" sheetId="2" r:id="rId2"/>
+    <sheet name="Split" sheetId="3" r:id="rId3"/>
+    <sheet name="Cutter" sheetId="4" r:id="rId4"/>
+    <sheet name="Curveball" sheetId="5" r:id="rId5"/>
+    <sheet name="Sinkers" sheetId="6" r:id="rId6"/>
+    <sheet name="Sliders" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="19">
   <si>
     <t>t</t>
   </si>
@@ -85,12 +90,27 @@
     <t>delta x</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>delta y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delta z校正</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delta x校正</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -103,6 +123,14 @@
       <sz val="9"/>
       <name val="新細明體"/>
       <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="新細明體"/>
+      <family val="1"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
@@ -135,11 +163,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2553,8 +2584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12BD36C0-B425-9B4C-A2F6-5AE91219C9DE}">
   <dimension ref="A1:P14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3146,4 +3177,1500 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F8B350A-3861-3E4B-B10F-EDFB6F39686F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB4AF692-D2B9-4D40-B86F-6A8DE7811FBB}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEB3F955-CF89-1241-8C17-85D42B1D4DCD}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB182641-BB74-754E-BC2D-CFF875D69453}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B863F3FA-FBC7-7642-928F-272AB9CBA894}">
+  <dimension ref="A1:V29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:22">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>9</v>
+      </c>
+      <c r="T1">
+        <v>1.2370000000000001</v>
+      </c>
+      <c r="U1">
+        <v>1.5680000000000001</v>
+      </c>
+      <c r="V1">
+        <f>U1-T1</f>
+        <v>0.33099999999999996</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
+      <c r="A2">
+        <v>12.879533333333301</v>
+      </c>
+      <c r="B2">
+        <v>1.3516778523489901</v>
+      </c>
+      <c r="C2">
+        <v>1.44093959731543</v>
+      </c>
+      <c r="E2">
+        <v>12.879533333333301</v>
+      </c>
+      <c r="F2">
+        <v>1.3516778523489901</v>
+      </c>
+      <c r="G2">
+        <v>1.44093959731543</v>
+      </c>
+      <c r="I2">
+        <f>E2-A2</f>
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <f t="shared" ref="J2:J25" si="0">F2-B2-R2</f>
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <f>J2/3</f>
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <f t="shared" ref="L2:L25" si="1">G2-C2</f>
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <f t="shared" ref="M2:M25" si="2">L2*P2</f>
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <f>18*S2/23</f>
+        <v>0</v>
+      </c>
+      <c r="P2" s="2">
+        <v>3.10119617224878</v>
+      </c>
+      <c r="R2">
+        <f>V2*S2/23</f>
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0.33099999999999996</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
+      <c r="A3">
+        <v>12.879533333333301</v>
+      </c>
+      <c r="B3">
+        <v>1.3516778523489901</v>
+      </c>
+      <c r="C3">
+        <v>1.44093959731543</v>
+      </c>
+      <c r="E3">
+        <v>12.8962166666666</v>
+      </c>
+      <c r="F3">
+        <v>1.3644295302013401</v>
+      </c>
+      <c r="G3">
+        <v>1.44093959731543</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I25" si="3">E3-A3</f>
+        <v>1.6683333333299188E-2</v>
+      </c>
+      <c r="J3">
+        <f t="shared" si="0"/>
+        <v>-1.6396264954760993E-3</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K25" si="4">J3/3</f>
+        <v>-5.4654216515869977E-4</v>
+      </c>
+      <c r="L3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <f t="shared" ref="N3:N24" si="5">18*S3/23</f>
+        <v>0.78260869565217395</v>
+      </c>
+      <c r="P3" s="2">
+        <v>3.1011961722487809</v>
+      </c>
+      <c r="R3">
+        <f t="shared" ref="R3:R25" si="6">V3*S3/23</f>
+        <v>1.4391304347826085E-2</v>
+      </c>
+      <c r="S3">
+        <v>1</v>
+      </c>
+      <c r="V3">
+        <v>0.33099999999999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
+      <c r="A4">
+        <v>12.879533333333301</v>
+      </c>
+      <c r="B4">
+        <v>1.3516778523489901</v>
+      </c>
+      <c r="C4">
+        <v>1.44093959731543</v>
+      </c>
+      <c r="E4">
+        <v>12.9129</v>
+      </c>
+      <c r="F4">
+        <v>1.37718120805369</v>
+      </c>
+      <c r="G4">
+        <v>1.44093959731543</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="3"/>
+        <v>3.3366666666699629E-2</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>-3.2792529909521986E-3</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="4"/>
+        <v>-1.0930843303173995E-3</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="5"/>
+        <v>1.5652173913043479</v>
+      </c>
+      <c r="P4" s="2">
+        <v>3.1011961722487809</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="6"/>
+        <v>2.8782608695652169E-2</v>
+      </c>
+      <c r="S4">
+        <v>2</v>
+      </c>
+      <c r="V4">
+        <v>0.33099999999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
+      <c r="A5">
+        <v>12.879533333333301</v>
+      </c>
+      <c r="B5">
+        <v>1.3516778523489901</v>
+      </c>
+      <c r="C5">
+        <v>1.44093959731543</v>
+      </c>
+      <c r="E5">
+        <v>12.9295833333333</v>
+      </c>
+      <c r="F5">
+        <v>1.37718120805369</v>
+      </c>
+      <c r="G5">
+        <v>1.44093959731543</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="3"/>
+        <v>5.0049999999998818E-2</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>-1.7670557338778287E-2</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="4"/>
+        <v>-5.8901857795927619E-3</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="5"/>
+        <v>2.347826086956522</v>
+      </c>
+      <c r="P5" s="2">
+        <v>3.1011961722487809</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="6"/>
+        <v>4.3173913043478257E-2</v>
+      </c>
+      <c r="S5">
+        <v>3</v>
+      </c>
+      <c r="V5">
+        <v>0.33099999999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
+      <c r="A6">
+        <v>12.879533333333301</v>
+      </c>
+      <c r="B6">
+        <v>1.3516778523489901</v>
+      </c>
+      <c r="C6">
+        <v>1.44093959731543</v>
+      </c>
+      <c r="E6">
+        <v>12.946266666666601</v>
+      </c>
+      <c r="F6">
+        <v>1.38993288590604</v>
+      </c>
+      <c r="G6">
+        <v>1.44093959731543</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="3"/>
+        <v>6.6733333333299782E-2</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>-1.9310183834254382E-2</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="4"/>
+        <v>-6.4367279447514608E-3</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="5"/>
+        <v>3.1304347826086958</v>
+      </c>
+      <c r="P6" s="2">
+        <v>3.1011961722487809</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="6"/>
+        <v>5.7565217391304338E-2</v>
+      </c>
+      <c r="S6">
+        <v>4</v>
+      </c>
+      <c r="V6">
+        <v>0.33099999999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
+      <c r="A7">
+        <v>12.879533333333301</v>
+      </c>
+      <c r="B7">
+        <v>1.3516778523489901</v>
+      </c>
+      <c r="C7">
+        <v>1.44093959731543</v>
+      </c>
+      <c r="E7">
+        <v>12.962949999999999</v>
+      </c>
+      <c r="F7">
+        <v>1.38993288590604</v>
+      </c>
+      <c r="G7">
+        <v>1.44093959731543</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="3"/>
+        <v>8.3416666666698447E-2</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>-3.3701488182080477E-2</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="4"/>
+        <v>-1.1233829394026826E-2</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="5"/>
+        <v>3.9130434782608696</v>
+      </c>
+      <c r="P7" s="2">
+        <v>3.1011961722487809</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="6"/>
+        <v>7.1956521739130433E-2</v>
+      </c>
+      <c r="S7">
+        <v>5</v>
+      </c>
+      <c r="V7">
+        <v>0.33099999999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
+      <c r="A8">
+        <v>12.879533333333301</v>
+      </c>
+      <c r="B8">
+        <v>1.3516778523489901</v>
+      </c>
+      <c r="C8">
+        <v>1.44093959731543</v>
+      </c>
+      <c r="E8">
+        <v>12.9796333333333</v>
+      </c>
+      <c r="F8">
+        <v>1.38993288590604</v>
+      </c>
+      <c r="G8">
+        <v>1.44093959731543</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="3"/>
+        <v>0.10009999999999941</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>-4.8092792529906558E-2</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="4"/>
+        <v>-1.6030930843302187E-2</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="5"/>
+        <v>4.6956521739130439</v>
+      </c>
+      <c r="P8" s="2">
+        <v>3.1011961722487809</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="6"/>
+        <v>8.6347826086956514E-2</v>
+      </c>
+      <c r="S8">
+        <v>6</v>
+      </c>
+      <c r="V8">
+        <v>0.33099999999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
+      <c r="A9">
+        <v>12.879533333333301</v>
+      </c>
+      <c r="B9">
+        <v>1.3516778523489901</v>
+      </c>
+      <c r="C9">
+        <v>1.44093959731543</v>
+      </c>
+      <c r="E9">
+        <v>12.996316666666599</v>
+      </c>
+      <c r="F9">
+        <v>1.38993288590604</v>
+      </c>
+      <c r="G9">
+        <v>1.44093959731543</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="3"/>
+        <v>0.1167833333332986</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>-6.2484096877732639E-2</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="4"/>
+        <v>-2.0828032292577545E-2</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="5"/>
+        <v>5.4782608695652177</v>
+      </c>
+      <c r="P9" s="2">
+        <v>3.1011961722487809</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="6"/>
+        <v>0.10073913043478259</v>
+      </c>
+      <c r="S9">
+        <v>7</v>
+      </c>
+      <c r="V9">
+        <v>0.33099999999999996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22">
+      <c r="A10">
+        <v>12.879533333333301</v>
+      </c>
+      <c r="B10">
+        <v>1.3516778523489901</v>
+      </c>
+      <c r="C10">
+        <v>1.44093959731543</v>
+      </c>
+      <c r="E10">
+        <v>13.013</v>
+      </c>
+      <c r="F10">
+        <v>1.40268456375839</v>
+      </c>
+      <c r="G10">
+        <v>1.44093959731543</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="3"/>
+        <v>0.13346666666669904</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="0"/>
+        <v>-6.4123723373208735E-2</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="4"/>
+        <v>-2.1374574457736245E-2</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="5"/>
+        <v>6.2608695652173916</v>
+      </c>
+      <c r="P10" s="2">
+        <v>3.1011961722487809</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="6"/>
+        <v>0.11513043478260868</v>
+      </c>
+      <c r="S10">
+        <v>8</v>
+      </c>
+      <c r="V10">
+        <v>0.33099999999999996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22">
+      <c r="A11">
+        <v>12.879533333333301</v>
+      </c>
+      <c r="B11">
+        <v>1.3516778523489901</v>
+      </c>
+      <c r="C11">
+        <v>1.44093959731543</v>
+      </c>
+      <c r="E11">
+        <v>13.029683333333301</v>
+      </c>
+      <c r="F11">
+        <v>1.41543624161073</v>
+      </c>
+      <c r="G11">
+        <v>1.44093959731543</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="3"/>
+        <v>0.15015000000000001</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="0"/>
+        <v>-6.5763349868694837E-2</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="4"/>
+        <v>-2.1921116622898279E-2</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="5"/>
+        <v>7.0434782608695654</v>
+      </c>
+      <c r="P11" s="2">
+        <v>3.1011961722487809</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="6"/>
+        <v>0.12952173913043477</v>
+      </c>
+      <c r="S11">
+        <v>9</v>
+      </c>
+      <c r="V11">
+        <v>0.33099999999999996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22">
+      <c r="A12">
+        <v>12.879533333333301</v>
+      </c>
+      <c r="B12">
+        <v>1.3516778523489901</v>
+      </c>
+      <c r="C12">
+        <v>1.44093959731543</v>
+      </c>
+      <c r="E12">
+        <v>13.0463666666666</v>
+      </c>
+      <c r="F12">
+        <v>1.41543624161073</v>
+      </c>
+      <c r="G12">
+        <v>1.44093959731543</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="3"/>
+        <v>0.16683333333329919</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="0"/>
+        <v>-8.0154654216520932E-2</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="4"/>
+        <v>-2.6718218072173644E-2</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="5"/>
+        <v>7.8260869565217392</v>
+      </c>
+      <c r="P12" s="2">
+        <v>3.1011961722487809</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="6"/>
+        <v>0.14391304347826087</v>
+      </c>
+      <c r="S12">
+        <v>10</v>
+      </c>
+      <c r="V12">
+        <v>0.33099999999999996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22">
+      <c r="A13">
+        <v>12.879533333333301</v>
+      </c>
+      <c r="B13">
+        <v>1.3516778523489901</v>
+      </c>
+      <c r="C13">
+        <v>1.44093959731543</v>
+      </c>
+      <c r="E13">
+        <v>13.06305</v>
+      </c>
+      <c r="F13">
+        <v>1.41543624161073</v>
+      </c>
+      <c r="G13">
+        <v>1.44093959731543</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="3"/>
+        <v>0.18351666666669963</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="0"/>
+        <v>-9.4545958564346999E-2</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="4"/>
+        <v>-3.1515319521449002E-2</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="5"/>
+        <v>8.6086956521739122</v>
+      </c>
+      <c r="P13" s="2">
+        <v>3.1011961722487809</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="6"/>
+        <v>0.15830434782608693</v>
+      </c>
+      <c r="S13">
+        <v>11</v>
+      </c>
+      <c r="V13">
+        <v>0.33099999999999996</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22">
+      <c r="A14">
+        <v>12.879533333333301</v>
+      </c>
+      <c r="B14">
+        <v>1.3516778523489901</v>
+      </c>
+      <c r="C14">
+        <v>1.44093959731543</v>
+      </c>
+      <c r="E14">
+        <v>13.0797333333333</v>
+      </c>
+      <c r="F14">
+        <v>1.42818791946308</v>
+      </c>
+      <c r="G14">
+        <v>1.44093959731543</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="3"/>
+        <v>0.20019999999999882</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="0"/>
+        <v>-9.6185585059823109E-2</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="4"/>
+        <v>-3.2061861686607705E-2</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="5"/>
+        <v>9.3913043478260878</v>
+      </c>
+      <c r="P14" s="2">
+        <v>3.1011961722487809</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="6"/>
+        <v>0.17269565217391303</v>
+      </c>
+      <c r="S14">
+        <v>12</v>
+      </c>
+      <c r="V14">
+        <v>0.33099999999999996</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22">
+      <c r="A15">
+        <v>12.879533333333301</v>
+      </c>
+      <c r="B15">
+        <v>1.3516778523489901</v>
+      </c>
+      <c r="C15">
+        <v>1.44093959731543</v>
+      </c>
+      <c r="E15">
+        <v>13.096416666666601</v>
+      </c>
+      <c r="F15">
+        <v>1.42818791946308</v>
+      </c>
+      <c r="G15">
+        <v>1.42818791946308</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="3"/>
+        <v>0.21688333333329979</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="0"/>
+        <v>-0.11057688940764918</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="4"/>
+        <v>-3.6858963135883056E-2</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="1"/>
+        <v>-1.2751677852349985E-2</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="2"/>
+        <v>-3.9545454545457326E-2</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="5"/>
+        <v>10.173913043478262</v>
+      </c>
+      <c r="P15" s="2">
+        <v>3.1011961722487809</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="6"/>
+        <v>0.1870869565217391</v>
+      </c>
+      <c r="S15">
+        <v>13</v>
+      </c>
+      <c r="V15">
+        <v>0.33099999999999996</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22">
+      <c r="A16">
+        <v>12.879533333333301</v>
+      </c>
+      <c r="B16">
+        <v>1.3516778523489901</v>
+      </c>
+      <c r="C16">
+        <v>1.44093959731543</v>
+      </c>
+      <c r="E16">
+        <v>13.113099999999999</v>
+      </c>
+      <c r="F16">
+        <v>1.42818791946308</v>
+      </c>
+      <c r="G16">
+        <v>1.38993288590604</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="3"/>
+        <v>0.23356666666669845</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="0"/>
+        <v>-0.12496819375547527</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="4"/>
+        <v>-4.1656064585158421E-2</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="1"/>
+        <v>-5.1006711409389949E-2</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="2"/>
+        <v>-0.15818181818179833</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="5"/>
+        <v>10.956521739130435</v>
+      </c>
+      <c r="P16" s="2">
+        <v>3.1011961722487809</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="6"/>
+        <v>0.20147826086956519</v>
+      </c>
+      <c r="S16">
+        <v>14</v>
+      </c>
+      <c r="V16">
+        <v>0.33099999999999996</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22">
+      <c r="A17">
+        <v>12.879533333333301</v>
+      </c>
+      <c r="B17">
+        <v>1.3516778523489901</v>
+      </c>
+      <c r="C17">
+        <v>1.44093959731543</v>
+      </c>
+      <c r="E17">
+        <v>13.1297833333333</v>
+      </c>
+      <c r="F17">
+        <v>1.44093959731543</v>
+      </c>
+      <c r="G17">
+        <v>1.38993288590604</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="3"/>
+        <v>0.25024999999999942</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="0"/>
+        <v>-0.12660782025095138</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="4"/>
+        <v>-4.2202606750317125E-2</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="1"/>
+        <v>-5.1006711409389949E-2</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="2"/>
+        <v>-0.15818181818179833</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="5"/>
+        <v>11.739130434782609</v>
+      </c>
+      <c r="P17" s="2">
+        <v>3.1011961722487809</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="6"/>
+        <v>0.21586956521739128</v>
+      </c>
+      <c r="S17">
+        <v>15</v>
+      </c>
+      <c r="V17">
+        <v>0.33099999999999996</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22">
+      <c r="A18">
+        <v>12.879533333333301</v>
+      </c>
+      <c r="B18">
+        <v>1.3516778523489901</v>
+      </c>
+      <c r="C18">
+        <v>1.44093959731543</v>
+      </c>
+      <c r="E18">
+        <v>13.146466666666599</v>
+      </c>
+      <c r="F18">
+        <v>1.42818791946308</v>
+      </c>
+      <c r="G18">
+        <v>1.3389261744966401</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="3"/>
+        <v>0.26693333333329861</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="0"/>
+        <v>-0.15375080245112743</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="4"/>
+        <v>-5.1250267483709144E-2</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="1"/>
+        <v>-0.10201342281878989</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="2"/>
+        <v>-0.31636363636362763</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="5"/>
+        <v>12.521739130434783</v>
+      </c>
+      <c r="P18" s="2">
+        <v>3.1011961722487809</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="6"/>
+        <v>0.23026086956521735</v>
+      </c>
+      <c r="S18">
+        <v>16</v>
+      </c>
+      <c r="V18">
+        <v>0.33099999999999996</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22">
+      <c r="A19">
+        <v>12.879533333333301</v>
+      </c>
+      <c r="B19">
+        <v>1.3516778523489901</v>
+      </c>
+      <c r="C19">
+        <v>1.44093959731543</v>
+      </c>
+      <c r="E19">
+        <v>13.16315</v>
+      </c>
+      <c r="F19">
+        <v>1.42818791946308</v>
+      </c>
+      <c r="G19">
+        <v>1.3261744966442901</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="3"/>
+        <v>0.28361666666669905</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="0"/>
+        <v>-0.1681421067989535</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="4"/>
+        <v>-5.6047368932984502E-2</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="1"/>
+        <v>-0.11476510067113987</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="2"/>
+        <v>-0.35590909090908496</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="5"/>
+        <v>13.304347826086957</v>
+      </c>
+      <c r="P19" s="2">
+        <v>3.1011961722487809</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="6"/>
+        <v>0.24465217391304342</v>
+      </c>
+      <c r="S19">
+        <v>17</v>
+      </c>
+      <c r="V19">
+        <v>0.33099999999999996</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22">
+      <c r="A20">
+        <v>12.879533333333301</v>
+      </c>
+      <c r="B20">
+        <v>1.3516778523489901</v>
+      </c>
+      <c r="C20">
+        <v>1.44093959731543</v>
+      </c>
+      <c r="E20">
+        <v>13.179833333333301</v>
+      </c>
+      <c r="F20">
+        <v>1.42818791946308</v>
+      </c>
+      <c r="G20">
+        <v>1.3006711409395899</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="3"/>
+        <v>0.30030000000000001</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="0"/>
+        <v>-0.18253341114677962</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="4"/>
+        <v>-6.0844470382259874E-2</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="1"/>
+        <v>-0.14026845637584007</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="2"/>
+        <v>-0.43500000000000033</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="5"/>
+        <v>14.086956521739131</v>
+      </c>
+      <c r="P20" s="2">
+        <v>3.1011961722487809</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="6"/>
+        <v>0.25904347826086954</v>
+      </c>
+      <c r="S20">
+        <v>18</v>
+      </c>
+      <c r="V20">
+        <v>0.33099999999999996</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22">
+      <c r="A21">
+        <v>12.879533333333301</v>
+      </c>
+      <c r="B21">
+        <v>1.3516778523489901</v>
+      </c>
+      <c r="C21">
+        <v>1.44093959731543</v>
+      </c>
+      <c r="E21">
+        <v>13.1965166666666</v>
+      </c>
+      <c r="F21">
+        <v>1.44093959731543</v>
+      </c>
+      <c r="G21">
+        <v>1.3006711409395899</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="3"/>
+        <v>0.3169833333332992</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="0"/>
+        <v>-0.18417303764225573</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="4"/>
+        <v>-6.1391012547418577E-2</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="1"/>
+        <v>-0.14026845637584007</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="2"/>
+        <v>-0.43500000000000033</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="5"/>
+        <v>14.869565217391305</v>
+      </c>
+      <c r="P21" s="2">
+        <v>3.1011961722487809</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="6"/>
+        <v>0.27343478260869564</v>
+      </c>
+      <c r="S21">
+        <v>19</v>
+      </c>
+      <c r="V21">
+        <v>0.33099999999999996</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22">
+      <c r="A22">
+        <v>12.879533333333301</v>
+      </c>
+      <c r="B22">
+        <v>1.3516778523489901</v>
+      </c>
+      <c r="C22">
+        <v>1.44093959731543</v>
+      </c>
+      <c r="E22">
+        <v>13.213200000000001</v>
+      </c>
+      <c r="F22">
+        <v>1.44093959731543</v>
+      </c>
+      <c r="G22">
+        <v>1.2241610738255</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="3"/>
+        <v>0.33366666666669964</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="0"/>
+        <v>-0.19856434199008183</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="4"/>
+        <v>-6.6188113996693942E-2</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="1"/>
+        <v>-0.21677852348992999</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="2"/>
+        <v>-0.67227272727271326</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="5"/>
+        <v>15.652173913043478</v>
+      </c>
+      <c r="P22" s="2">
+        <v>3.1011961722487809</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="6"/>
+        <v>0.28782608695652173</v>
+      </c>
+      <c r="S22">
+        <v>20</v>
+      </c>
+      <c r="V22">
+        <v>0.33099999999999996</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22">
+      <c r="A23">
+        <v>12.879533333333301</v>
+      </c>
+      <c r="B23">
+        <v>1.3516778523489901</v>
+      </c>
+      <c r="C23">
+        <v>1.44093959731543</v>
+      </c>
+      <c r="E23">
+        <v>13.2298833333333</v>
+      </c>
+      <c r="F23">
+        <v>1.45369127516778</v>
+      </c>
+      <c r="G23">
+        <v>1.2241610738255</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="3"/>
+        <v>0.35034999999999883</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="0"/>
+        <v>-0.20020396848555788</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="4"/>
+        <v>-6.6734656161852632E-2</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="1"/>
+        <v>-0.21677852348992999</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="2"/>
+        <v>-0.67227272727271326</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="5"/>
+        <v>16.434782608695652</v>
+      </c>
+      <c r="P23" s="2">
+        <v>3.1011961722487809</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="6"/>
+        <v>0.30221739130434777</v>
+      </c>
+      <c r="S23">
+        <v>21</v>
+      </c>
+      <c r="V23">
+        <v>0.33099999999999996</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22">
+      <c r="A24">
+        <v>12.879533333333301</v>
+      </c>
+      <c r="B24">
+        <v>1.3516778523489901</v>
+      </c>
+      <c r="C24">
+        <v>1.44093959731543</v>
+      </c>
+      <c r="E24">
+        <v>13.246566666666601</v>
+      </c>
+      <c r="F24">
+        <v>1.4664429530201299</v>
+      </c>
+      <c r="G24">
+        <v>1.1604026845637501</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="3"/>
+        <v>0.36703333333329979</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="0"/>
+        <v>-0.20184359498103399</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="4"/>
+        <v>-6.7281198327011335E-2</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="1"/>
+        <v>-0.28053691275167991</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="2"/>
+        <v>-0.87</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="5"/>
+        <v>17.217391304347824</v>
+      </c>
+      <c r="P24" s="2">
+        <v>3.1011961722487809</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="6"/>
+        <v>0.31660869565217387</v>
+      </c>
+      <c r="S24">
+        <v>22</v>
+      </c>
+      <c r="V24">
+        <v>0.33099999999999996</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22">
+      <c r="A25">
+        <v>12.879533333333301</v>
+      </c>
+      <c r="B25">
+        <v>1.3516778523489901</v>
+      </c>
+      <c r="C25">
+        <v>1.44093959731543</v>
+      </c>
+      <c r="E25">
+        <v>13.263249999999999</v>
+      </c>
+      <c r="F25">
+        <v>1.4664429530201299</v>
+      </c>
+      <c r="G25">
+        <v>1.1604026845637501</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="3"/>
+        <v>0.38371666666669846</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="0"/>
+        <v>-0.21623489932886009</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="4"/>
+        <v>-7.20782997762867E-2</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="1"/>
+        <v>-0.28053691275167991</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="2"/>
+        <v>-0.87</v>
+      </c>
+      <c r="N25">
+        <v>18</v>
+      </c>
+      <c r="P25" s="2">
+        <v>3.1011961722487809</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="6"/>
+        <v>0.33099999999999996</v>
+      </c>
+      <c r="S25">
+        <v>23</v>
+      </c>
+      <c r="V25">
+        <v>0.33099999999999996</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22">
+      <c r="G29">
+        <f>G2-G25</f>
+        <v>0.28053691275167991</v>
+      </c>
+      <c r="H29">
+        <f>0.87/G29</f>
+        <v>3.1011961722487809</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>